--- a/src/test/resources/testdata/APITestData.xlsx
+++ b/src/test/resources/testdata/APITestData.xlsx
@@ -9,7 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="create_issue" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="issue_idd_to_delete" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="edit_issue" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="32">
   <si>
     <t xml:space="preserve">title</t>
   </si>
@@ -32,48 +32,100 @@
     <t xml:space="preserve">issue_type</t>
   </si>
   <si>
-    <t xml:space="preserve">Test 11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description Test 11</t>
+    <t xml:space="preserve">assignee_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">confidential</t>
+  </si>
+  <si>
+    <t xml:space="preserve">discussion_locked</t>
+  </si>
+  <si>
+    <t xml:space="preserve">created_at</t>
+  </si>
+  <si>
+    <t xml:space="preserve">due_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">labels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add_labels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remove_labels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">milestone_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">state_event</t>
+  </si>
+  <si>
+    <t xml:space="preserve">weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">epic_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">epic_iid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description Test 1</t>
   </si>
   <si>
     <t xml:space="preserve">issue</t>
   </si>
   <si>
-    <t xml:space="preserve">Test 12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description Test 12</t>
+    <t xml:space="preserve">false</t>
+  </si>
+  <si>
+    <t xml:space="preserve">null</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description Test 2</t>
   </si>
   <si>
     <t xml:space="preserve">incident</t>
   </si>
   <si>
-    <t xml:space="preserve">Test 13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description Test 13</t>
+    <t xml:space="preserve">true</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description Test 3</t>
   </si>
   <si>
     <t xml:space="preserve">test_case</t>
   </si>
   <si>
-    <t xml:space="preserve">Test 14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description Test 14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iid</t>
+    <t xml:space="preserve">Test 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description Test 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">changed title for another issue </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -149,7 +201,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -159,6 +211,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -179,13 +235,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q6" activeCellId="0" sqref="Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.47"/>
   </cols>
@@ -200,49 +256,172 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>18</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>28</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -261,22 +440,99 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:AMJ2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
+      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16"/>
+  </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
-        <v>36</v>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AMJ1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
